--- a/NewJenkinTest/target/surefire-reports/Report.xlsx
+++ b/NewJenkinTest/target/surefire-reports/Report.xlsx
@@ -14,10 +14,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>85633</t>
+    <t>26084</t>
   </si>
   <si>
-    <t>jenkins.TestTrident_SignupPage_Blank_Field_Validation_85633</t>
+    <t>jenkins.TestTrident_SignupPage_Blank_Field_Validation_26084</t>
   </si>
   <si>
     <t>PASS</t>
